--- a/data_year/zb/运输和邮电/按货类分国家铁路货物运输量/货运量.xlsx
+++ b/data_year/zb/运输和邮电/按货类分国家铁路货物运输量/货运量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,1045 +513,569 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165498</v>
+        <v>308209.4553</v>
       </c>
       <c r="C2" t="n">
-        <v>18531</v>
+        <v>22396.5477</v>
       </c>
       <c r="D2" t="n">
-        <v>5189</v>
+        <v>8178.7021</v>
       </c>
       <c r="E2" t="n">
-        <v>3436</v>
+        <v>2501.3553</v>
       </c>
       <c r="F2" t="n">
-        <v>233</v>
+        <v>397.2776</v>
       </c>
       <c r="G2" t="n">
-        <v>3900</v>
+        <v>3526.4006</v>
       </c>
       <c r="H2" t="n">
-        <v>4725</v>
+        <v>9494.1412</v>
       </c>
       <c r="I2" t="n">
-        <v>68545</v>
+        <v>156019.9967</v>
       </c>
       <c r="J2" t="n">
-        <v>1245</v>
+        <v>1379.3435</v>
       </c>
       <c r="K2" t="n">
-        <v>9391</v>
+        <v>12847.4604</v>
       </c>
       <c r="L2" t="n">
-        <v>9671</v>
+        <v>12553.4125</v>
       </c>
       <c r="M2" t="n">
-        <v>7935</v>
+        <v>9692.358399999999</v>
       </c>
       <c r="N2" t="n">
-        <v>13022</v>
+        <v>38087.7525</v>
       </c>
       <c r="O2" t="n">
-        <v>11537</v>
+        <v>22428.0225</v>
       </c>
       <c r="P2" t="n">
-        <v>8138</v>
+        <v>8706.684300000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178592</v>
+        <v>328135.9362</v>
       </c>
       <c r="C3" t="n">
-        <v>19587</v>
+        <v>23355.8541000001</v>
       </c>
       <c r="D3" t="n">
-        <v>5601</v>
+        <v>8308.3676</v>
       </c>
       <c r="E3" t="n">
-        <v>3366</v>
+        <v>2813.9051</v>
       </c>
       <c r="F3" t="n">
-        <v>161</v>
+        <v>275.7619</v>
       </c>
       <c r="G3" t="n">
-        <v>3930</v>
+        <v>3638.5174</v>
       </c>
       <c r="H3" t="n">
-        <v>4986</v>
+        <v>9894.719499999999</v>
       </c>
       <c r="I3" t="n">
-        <v>76625</v>
+        <v>172125.7362</v>
       </c>
       <c r="J3" t="n">
-        <v>1216</v>
+        <v>1698.9127</v>
       </c>
       <c r="K3" t="n">
-        <v>9852</v>
+        <v>12564.4969</v>
       </c>
       <c r="L3" t="n">
-        <v>9799</v>
+        <v>12440.3526</v>
       </c>
       <c r="M3" t="n">
-        <v>7090</v>
+        <v>9578.2853</v>
       </c>
       <c r="N3" t="n">
-        <v>14987</v>
+        <v>39147.6502</v>
       </c>
       <c r="O3" t="n">
-        <v>12894</v>
+        <v>22778.5638</v>
       </c>
       <c r="P3" t="n">
-        <v>8498</v>
+        <v>9514.812900000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186894</v>
+        <v>322345.5782</v>
       </c>
       <c r="C4" t="n">
-        <v>18987</v>
+        <v>22597.3327</v>
       </c>
       <c r="D4" t="n">
-        <v>5942</v>
+        <v>8924.7122</v>
       </c>
       <c r="E4" t="n">
-        <v>3149</v>
+        <v>2436.9361</v>
       </c>
       <c r="F4" t="n">
-        <v>243</v>
+        <v>388.5955</v>
       </c>
       <c r="G4" t="n">
-        <v>3596</v>
+        <v>3425.6739</v>
       </c>
       <c r="H4" t="n">
-        <v>5613</v>
+        <v>9337.881100000001</v>
       </c>
       <c r="I4" t="n">
-        <v>81852</v>
+        <v>168515.2922</v>
       </c>
       <c r="J4" t="n">
-        <v>1256</v>
+        <v>1532.4215</v>
       </c>
       <c r="K4" t="n">
-        <v>10299</v>
+        <v>12652.417</v>
       </c>
       <c r="L4" t="n">
-        <v>8599</v>
+        <v>11759.0814</v>
       </c>
       <c r="M4" t="n">
-        <v>8282</v>
+        <v>9980.7448</v>
       </c>
       <c r="N4" t="n">
-        <v>16777</v>
+        <v>40111.7638</v>
       </c>
       <c r="O4" t="n">
-        <v>14123</v>
+        <v>21932.1803</v>
       </c>
       <c r="P4" t="n">
-        <v>8176</v>
+        <v>8750.545700000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199076</v>
+        <v>321614.2714</v>
       </c>
       <c r="C5" t="n">
-        <v>20099</v>
+        <v>21596.3575</v>
       </c>
       <c r="D5" t="n">
-        <v>5660</v>
+        <v>8339.716700000001</v>
       </c>
       <c r="E5" t="n">
-        <v>3054</v>
+        <v>2483.1804</v>
       </c>
       <c r="F5" t="n">
-        <v>218</v>
+        <v>436.5938</v>
       </c>
       <c r="G5" t="n">
-        <v>3652</v>
+        <v>3568.5727</v>
       </c>
       <c r="H5" t="n">
-        <v>7124</v>
+        <v>9996.6715</v>
       </c>
       <c r="I5" t="n">
-        <v>88132</v>
+        <v>167945.6587</v>
       </c>
       <c r="J5" t="n">
-        <v>1263</v>
+        <v>1500.2327</v>
       </c>
       <c r="K5" t="n">
-        <v>10765</v>
+        <v>12731.7605</v>
       </c>
       <c r="L5" t="n">
-        <v>7664</v>
+        <v>13547.9459</v>
       </c>
       <c r="M5" t="n">
-        <v>10138</v>
+        <v>10446.7106</v>
       </c>
       <c r="N5" t="n">
-        <v>18082</v>
+        <v>40187.3864</v>
       </c>
       <c r="O5" t="n">
-        <v>15280</v>
+        <v>21569.8041</v>
       </c>
       <c r="P5" t="n">
-        <v>7945</v>
+        <v>7263.6799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216961</v>
+        <v>306259.312</v>
       </c>
       <c r="C6" t="n">
-        <v>21615</v>
+        <v>21257.3486</v>
       </c>
       <c r="D6" t="n">
-        <v>6392</v>
+        <v>7867.6824</v>
       </c>
       <c r="E6" t="n">
-        <v>3237</v>
+        <v>2187.4205</v>
       </c>
       <c r="F6" t="n">
-        <v>264</v>
+        <v>495.9007</v>
       </c>
       <c r="G6" t="n">
-        <v>3700</v>
+        <v>3416.525</v>
       </c>
       <c r="H6" t="n">
-        <v>7189</v>
+        <v>9589.536099999999</v>
       </c>
       <c r="I6" t="n">
-        <v>99210</v>
+        <v>164130.5731</v>
       </c>
       <c r="J6" t="n">
-        <v>1278</v>
+        <v>1531.3714</v>
       </c>
       <c r="K6" t="n">
-        <v>11944</v>
+        <v>12806.972</v>
       </c>
       <c r="L6" t="n">
-        <v>7785</v>
+        <v>11890.8208</v>
       </c>
       <c r="M6" t="n">
-        <v>10906</v>
+        <v>8260.3673</v>
       </c>
       <c r="N6" t="n">
-        <v>19319</v>
+        <v>36708.3953</v>
       </c>
       <c r="O6" t="n">
-        <v>16083</v>
+        <v>19664.7573</v>
       </c>
       <c r="P6" t="n">
-        <v>8039</v>
+        <v>6451.6415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230920</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20684</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7163</v>
-      </c>
+        <v>270823.7797</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>3501</v>
-      </c>
-      <c r="F7" t="n">
-        <v>283</v>
-      </c>
+        <v>1883.1116</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>3470</v>
+        <v>2476.6685</v>
       </c>
       <c r="H7" t="n">
-        <v>7918</v>
+        <v>7553.0848</v>
       </c>
       <c r="I7" t="n">
-        <v>107082</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1287</v>
-      </c>
+        <v>143221.2344</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>12667</v>
+        <v>12552.9493</v>
       </c>
       <c r="L7" t="n">
-        <v>7820</v>
+        <v>10438.101</v>
       </c>
       <c r="M7" t="n">
-        <v>11082</v>
+        <v>5589.8049</v>
       </c>
       <c r="N7" t="n">
-        <v>22187</v>
+        <v>32841.1969</v>
       </c>
       <c r="O7" t="n">
-        <v>17536</v>
+        <v>16063.4687</v>
       </c>
       <c r="P7" t="n">
-        <v>8240</v>
+        <v>5669.6119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244395</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21858</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7417</v>
-      </c>
+        <v>265086.399</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>3607</v>
-      </c>
-      <c r="F8" t="n">
-        <v>389</v>
-      </c>
+        <v>2409.3228</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>3799</v>
+        <v>2130.7853</v>
       </c>
       <c r="H8" t="n">
-        <v>8831</v>
+        <v>7659.3969</v>
       </c>
       <c r="I8" t="n">
-        <v>112034</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1288</v>
-      </c>
+        <v>131790.7288</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>12743</v>
+        <v>12478.2192</v>
       </c>
       <c r="L8" t="n">
-        <v>8016</v>
+        <v>9471.2842</v>
       </c>
       <c r="M8" t="n">
-        <v>10111</v>
+        <v>5981.2583</v>
       </c>
       <c r="N8" t="n">
-        <v>25568</v>
+        <v>36188.3227</v>
       </c>
       <c r="O8" t="n">
-        <v>20059</v>
+        <v>15275.9815</v>
       </c>
       <c r="P8" t="n">
-        <v>8675</v>
+        <v>5070.8983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>261239.2163</v>
-      </c>
-      <c r="C9" t="n">
-        <v>23104.5675</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8151.586</v>
-      </c>
+        <v>291759.1612</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>3729.3787</v>
-      </c>
-      <c r="F9" t="n">
-        <v>386.2777</v>
-      </c>
+        <v>2557.3559</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>3540.5808</v>
+        <v>2305.7546</v>
       </c>
       <c r="H9" t="n">
-        <v>9327.127899999999</v>
+        <v>8164.5507</v>
       </c>
       <c r="I9" t="n">
-        <v>122080.6265</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1355.7553</v>
-      </c>
+        <v>149129.8603</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>12701.8496</v>
+        <v>11747.3817</v>
       </c>
       <c r="L9" t="n">
-        <v>8031.5181</v>
+        <v>8712.062099999999</v>
       </c>
       <c r="M9" t="n">
-        <v>10471.3655</v>
+        <v>7795.1396</v>
       </c>
       <c r="N9" t="n">
-        <v>27577.3489</v>
+        <v>38749.1394</v>
       </c>
       <c r="O9" t="n">
-        <v>21593.7598</v>
+        <v>17131.1268</v>
       </c>
       <c r="P9" t="n">
-        <v>9187.474</v>
+        <v>5706.1439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>273932.2601</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21510.5514</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7810.9284</v>
-      </c>
+        <v>318957.6769206</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>2935.2205</v>
-      </c>
-      <c r="F10" t="n">
-        <v>388.1953</v>
-      </c>
+        <v>2187.2013</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>3549.2835</v>
+        <v>2436.2477</v>
       </c>
       <c r="H10" t="n">
-        <v>8774.7291</v>
+        <v>8512.4274</v>
       </c>
       <c r="I10" t="n">
-        <v>134325</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1413.0336</v>
-      </c>
+        <v>166421.9782</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>12671.3016</v>
+        <v>11507.5134</v>
       </c>
       <c r="L10" t="n">
-        <v>9518.1666</v>
+        <v>7928.4186</v>
       </c>
       <c r="M10" t="n">
-        <v>11469.5294</v>
+        <v>8450.5682</v>
       </c>
       <c r="N10" t="n">
-        <v>29795.9458</v>
+        <v>41869.7665</v>
       </c>
       <c r="O10" t="n">
-        <v>20716.2651</v>
+        <v>18474.3701</v>
       </c>
       <c r="P10" t="n">
-        <v>9054.1098</v>
+        <v>6273.0681</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276275.6635</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20725.1743</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8029.332</v>
-      </c>
+        <v>343905.1452347</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>2475.5203</v>
-      </c>
-      <c r="F11" t="n">
-        <v>442.6392</v>
-      </c>
+        <v>1996.4175</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>3740.3508</v>
+        <v>2417.8365</v>
       </c>
       <c r="H11" t="n">
-        <v>8548.6477</v>
+        <v>8736.2847</v>
       </c>
       <c r="I11" t="n">
-        <v>132720.1535</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1318.1458</v>
-      </c>
+        <v>172263.2784</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>12530.9528</v>
+        <v>11761.0554</v>
       </c>
       <c r="L11" t="n">
-        <v>10745.2436</v>
+        <v>12022.0523</v>
       </c>
       <c r="M11" t="n">
-        <v>9925.0198</v>
+        <v>7835.6633</v>
       </c>
       <c r="N11" t="n">
-        <v>35679.6734</v>
+        <v>46425.5551</v>
       </c>
       <c r="O11" t="n">
-        <v>21526.5372</v>
+        <v>20466.8527</v>
       </c>
       <c r="P11" t="n">
-        <v>7868.2731</v>
+        <v>7824.0912</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>308209.4553</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22396.5477</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8178.7021</v>
-      </c>
+        <v>358002.9463</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>2501.3553</v>
-      </c>
-      <c r="F12" t="n">
-        <v>397.2776</v>
-      </c>
+        <v>1467.5489</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>3526.4006</v>
+        <v>2052.2376</v>
       </c>
       <c r="H12" t="n">
-        <v>9494.1412</v>
+        <v>8956.433800000001</v>
       </c>
       <c r="I12" t="n">
-        <v>156019.9967</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1379.3435</v>
-      </c>
+        <v>169691.8285</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>12847.4604</v>
+        <v>10979.9869</v>
       </c>
       <c r="L12" t="n">
-        <v>12553.4125</v>
+        <v>12544.5619</v>
       </c>
       <c r="M12" t="n">
-        <v>9692.358399999999</v>
+        <v>7573.4585</v>
       </c>
       <c r="N12" t="n">
-        <v>38087.7525</v>
+        <v>49081.1678</v>
       </c>
       <c r="O12" t="n">
-        <v>22428.0225</v>
+        <v>22649.407</v>
       </c>
       <c r="P12" t="n">
-        <v>8706.684300000001</v>
+        <v>8329.8269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328135.9362</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23355.8541000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8308.3676</v>
-      </c>
+        <v>372450.0487</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>2813.9051</v>
-      </c>
-      <c r="F13" t="n">
-        <v>275.7619</v>
-      </c>
+        <v>1392.6441</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>3638.5174</v>
+        <v>1820.9332</v>
       </c>
       <c r="H13" t="n">
-        <v>9894.719499999999</v>
+        <v>7753.5708</v>
       </c>
       <c r="I13" t="n">
-        <v>172125.7362</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1698.9127</v>
-      </c>
+        <v>181745.913</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>12564.4969</v>
+        <v>10563.8398</v>
       </c>
       <c r="L13" t="n">
-        <v>12440.3526</v>
+        <v>10517.6617</v>
       </c>
       <c r="M13" t="n">
-        <v>9578.2853</v>
+        <v>6475.2764</v>
       </c>
       <c r="N13" t="n">
-        <v>39147.6502</v>
+        <v>46907.3976</v>
       </c>
       <c r="O13" t="n">
-        <v>22778.5638</v>
+        <v>22512.0834</v>
       </c>
       <c r="P13" t="n">
-        <v>9514.812900000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>322345.5782</v>
-      </c>
-      <c r="C14" t="n">
-        <v>22597.3327</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8924.7122</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2436.9361</v>
-      </c>
-      <c r="F14" t="n">
-        <v>388.5955</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3425.6739</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9337.881100000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>168515.2922</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1532.4215</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12652.417</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11759.0814</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9980.7448</v>
-      </c>
-      <c r="N14" t="n">
-        <v>40111.7638</v>
-      </c>
-      <c r="O14" t="n">
-        <v>21932.1803</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8750.545700000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>321614.2714</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21596.3575</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8339.716700000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2483.1804</v>
-      </c>
-      <c r="F15" t="n">
-        <v>436.5938</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3568.5727</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9996.6715</v>
-      </c>
-      <c r="I15" t="n">
-        <v>167945.6587</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1500.2327</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12731.7605</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13547.9459</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10446.7106</v>
-      </c>
-      <c r="N15" t="n">
-        <v>40187.3864</v>
-      </c>
-      <c r="O15" t="n">
-        <v>21569.8041</v>
-      </c>
-      <c r="P15" t="n">
-        <v>7263.6799</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>306259.312</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21257.3486</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7867.6824</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2187.4205</v>
-      </c>
-      <c r="F16" t="n">
-        <v>495.9007</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3416.525</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9589.536099999999</v>
-      </c>
-      <c r="I16" t="n">
-        <v>164130.5731</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1531.3714</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12806.972</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11890.8208</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8260.3673</v>
-      </c>
-      <c r="N16" t="n">
-        <v>36708.3953</v>
-      </c>
-      <c r="O16" t="n">
-        <v>19664.7573</v>
-      </c>
-      <c r="P16" t="n">
-        <v>6451.6415</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>270823.7797</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1883.1116</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>2476.6685</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7553.0848</v>
-      </c>
-      <c r="I17" t="n">
-        <v>143221.2344</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>12552.9493</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10438.101</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5589.8049</v>
-      </c>
-      <c r="N17" t="n">
-        <v>32841.1969</v>
-      </c>
-      <c r="O17" t="n">
-        <v>16063.4687</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5669.6119</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>265086.399</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>2409.3228</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>2130.7853</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7659.3969</v>
-      </c>
-      <c r="I18" t="n">
-        <v>131790.7288</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>12478.2192</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9471.2842</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5981.2583</v>
-      </c>
-      <c r="N18" t="n">
-        <v>36188.3227</v>
-      </c>
-      <c r="O18" t="n">
-        <v>15275.9815</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5070.8983</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>291759.1612</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>2557.3559</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>2305.7546</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8164.5507</v>
-      </c>
-      <c r="I19" t="n">
-        <v>149129.8603</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>11747.3817</v>
-      </c>
-      <c r="L19" t="n">
-        <v>8712.062099999999</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7795.1396</v>
-      </c>
-      <c r="N19" t="n">
-        <v>38749.1394</v>
-      </c>
-      <c r="O19" t="n">
-        <v>17131.1268</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5706.1439</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>318957.6769206</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>2187.2013</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>2436.2477</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8512.4274</v>
-      </c>
-      <c r="I20" t="n">
-        <v>166421.9782</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>11507.5134</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7928.4186</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8450.5682</v>
-      </c>
-      <c r="N20" t="n">
-        <v>41869.7665</v>
-      </c>
-      <c r="O20" t="n">
-        <v>18474.3701</v>
-      </c>
-      <c r="P20" t="n">
-        <v>6273.0681</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>343905.1452347</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>1996.4175</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>2417.8365</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8736.2847</v>
-      </c>
-      <c r="I21" t="n">
-        <v>172263.2784</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>11761.0554</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12022.0523</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7835.6633</v>
-      </c>
-      <c r="N21" t="n">
-        <v>46425.5551</v>
-      </c>
-      <c r="O21" t="n">
-        <v>20466.8527</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7824.0912</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>358002.9463</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1467.5489</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>2052.2376</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8956.433800000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>169691.8285</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>10979.9869</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12544.5619</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7573.4585</v>
-      </c>
-      <c r="N22" t="n">
-        <v>49081.1678</v>
-      </c>
-      <c r="O22" t="n">
-        <v>22649.407</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8329.8269</v>
+        <v>7598.9904</v>
       </c>
     </row>
   </sheetData>
